--- a/func/templates/anexa_backup.xlsx
+++ b/func/templates/anexa_backup.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\AppData\Roaming\QGIS\QGIS3\profiles\default\python\plugins\stalpi_assist_buttons\func\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71726377-4BF2-4A1F-B122-BE7C77165E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1914CECF-FD09-4BE9-8F41-C8F317818E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="815" firstSheet="3" activeTab="9" xr2:uid="{161416AC-371D-4DC7-8579-2717821BF42C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="815" firstSheet="3" activeTab="4" xr2:uid="{161416AC-371D-4DC7-8579-2717821BF42C}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="2" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="585">
   <si>
     <t>ID</t>
   </si>
@@ -99,38 +99,6 @@
     <t>Descrierea BDI a PA/PT din care se alimenteaza</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>SUPORT SIGURANTE 01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>...nn (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>se numeroteaza de la stanga la dreapta indiferent de TDRI)</t>
-    </r>
-  </si>
-  <si>
     <t>Sursa coordonate</t>
   </si>
   <si>
@@ -308,36 +276,6 @@
     <t>Completat de catre gestionarul liniei</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Lista de valori (catalog tronson JT)
-Ex: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Al 4x50+1x35</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Lungimea tronsonului (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>km)</t>
-    </r>
-  </si>
-  <si>
     <t>Plecare bransament</t>
   </si>
   <si>
@@ -359,114 +297,7 @@
     <t>Tronson JT6</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">lista de valori:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>LEA JT
-LES JT
-LEA IL
-LES IL</t>
-    </r>
-  </si>
-  <si>
     <t>denumirea stalpului din sheetul "STALP"</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Valori posibile: 
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>interior
-  exterior</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Valori posibile: 
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Da
-  Nu</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Valori posibile:
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Burata
-  Turnata</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Valori posibile:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 
- Rural
- Urban</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Valori posibile:
- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Beton
-  Lemn
-  Metal
-  Compozit</t>
-    </r>
   </si>
   <si>
     <t>Defecte stalp</t>
@@ -483,28 +314,6 @@
     <t>Dispozitiv cuib pasari</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Valori posibile: 
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">C2S
-  C4S
-  C2T
-  C4T
-  C2BR
-  C4BR
-</t>
-    </r>
-  </si>
-  <si>
     <t>Corp iluminat</t>
   </si>
   <si>
@@ -533,28 +342,6 @@
   </si>
   <si>
     <t>Tipul liniei</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">lista de valori:
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">LEA JT
-  LES JT
-  LEA IL
-  LES IL
-  LEA JT+IL
-  </t>
-    </r>
   </si>
   <si>
     <t>STABILIZATOR TENSIUNE</t>
@@ -574,52 +361,6 @@
     <t>ex: crapata, spalata, dislocata, rupta</t>
   </si>
   <si>
-    <t xml:space="preserve">ex: deteriorat, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Echipamente comunicatii </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">(amplificator, spilter, camera video)
-Valori posibile: 
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Da
-  Nu</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>20 caractere</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">
- - strada+nr
- - stalp(denumire)</t>
-    </r>
-  </si>
-  <si>
     <t>Material</t>
   </si>
   <si>
@@ -636,9 +377,6 @@
     <t>STP. + Denumire + Strada</t>
   </si>
   <si>
-    <t xml:space="preserve">Nr circuite </t>
-  </si>
-  <si>
     <t>nr circuite intrare/nr circuite iesire
 Ex: 2i/3e</t>
   </si>
@@ -679,28 +417,6 @@
     <t>Post de lucru</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> - se refera numai la circuitele de retea
-Valori posibile:
-   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1
-  2
-  3
-  4
-  5
-  6</t>
-    </r>
-  </si>
-  <si>
     <t>lista catalog</t>
   </si>
   <si>
@@ -714,54 +430,6 @@
     <t>Nr. crt</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Valori posibile: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Nu
-lemn
-metal
-beton</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Valori posibile: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">metal
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>policarbonat
-PAFS
-zidite</t>
-    </r>
-  </si>
-  <si>
     <t>Al 3x16</t>
   </si>
   <si>
@@ -1330,40 +998,6 @@
   </si>
   <si>
     <t>COS</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Valori posibile:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>BMPM
-BMPT
-FDCP
-FB1
-FB3
-FM1
-FM3
-FDCS
-COS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
   </si>
   <si>
     <t>ACB2XCY 35/35</t>
@@ -1710,88 +1344,12 @@
     <t>sa</t>
   </si>
   <si>
-    <t xml:space="preserve">sc </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">t </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sa/d </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sc/d </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ia/d </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ic/d </t>
-  </si>
-  <si>
     <t>t/d</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">lista:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>sa
-sc
-ia
-ic
-t
-sa/d
-sc/d
-ia/d
-ic/d
-t/d</t>
-    </r>
-  </si>
-  <si>
     <t>FIRIDA</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Valori posibile: 
- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>de acoperis
-  de zid</t>
-    </r>
-  </si>
-  <si>
     <t>Tipul de consola(STALP)</t>
   </si>
   <si>
@@ -1870,132 +1428,15 @@
     <t>Geometrie</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">
-Tipul dispunerii + Descrierea instalatiei superioare(</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>este Descrierea BDI a PA/PT)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> + Denumire</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">URBAN </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">
-- se numeroteaza crescator incepand de la capatul de inceput al starzii(incepan de la numerele mici la numerele mari)
- - S = partea stanga a strazii
- - D = partea dreapta a strazii
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>RURAL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">
- - se numeroteaza crescator incepand de la PT, pe circuit
-</t>
-    </r>
-  </si>
-  <si>
     <t>se vor scrie circuitele comune pentru deschidere</t>
   </si>
   <si>
     <t>conform ANCPI(fisierul Localitati.xls)</t>
   </si>
   <si>
-    <r>
-      <t>coordonate geografice (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>in format WKT - LINESTRING()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>) STEREO 70</t>
-    </r>
-  </si>
-  <si>
     <t>! Coordonatele se vor culege in fisiere dwg, dxf, in sistem Stereo 70, desenate ca si polilinie. LINESTRING() se va prelua din aceste fișiere</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">lista de valori:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0,4
-0,5
-1</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve"> - numeric, cu 3 zecimale</t>
   </si>
   <si>
@@ -2032,240 +1473,25 @@
     <t>ID_Locatie</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Valori posibile:
- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Masuratori topo
-Vectorizare in plan</t>
-    </r>
-  </si>
-  <si>
     <t>(longitudine prima)</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Valori posibile:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Masuratori topo
-Vectorizare in plan</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>coordonate geografice (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">in format WKT - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>POINT</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>) STEREO 70</t>
-    </r>
-  </si>
-  <si>
     <t>ID_linie JT</t>
   </si>
   <si>
     <t>longitudine prima</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Valori posibile:
- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Masuratori topo
-Vectorizare in plan</t>
-    </r>
-  </si>
-  <si>
     <t>CONSOLA + Denumire</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Valori posibile: 
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>interior
-  exterior</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Valori posibile: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>metal
-policarbonat
-PAFS
-zidite</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Valori posibile:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>BMPM
-BMPT
-FDCP
-FB1
-FB3
-FM1
-FM3
-FDCS
-COS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
     <t>Amplasare</t>
   </si>
   <si>
     <t>ID_Descrierea instalatiei uperioare</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">lista valori:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>de retea
-de bransament</t>
-    </r>
-  </si>
-  <si>
     <t>conform ANCPI (lista)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Valori posibile:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>E1-2
-E1-3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-…..
-</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Valori posibile:
@@ -2275,333 +1501,253 @@
 </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">nr circuite intrare/nr circuite iesire
-Ex: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2i/3e</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Valori posibile:
- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> monofazat
-  trifazat</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Valori posibile:
+    <t>! Coordonatele LINESTRING() se vor culege din fisiere dwg, dxf, in sistem Stereo 70, desenate ca si polilinie</t>
+  </si>
+  <si>
+    <t>GRUP MASURA+Denumire</t>
+  </si>
+  <si>
+    <t>lista valori</t>
+  </si>
+  <si>
+    <t>DESC +Denumire</t>
+  </si>
+  <si>
+    <t>nr stp.inceput-nr stp.sfarsit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = Descrierea BDI a stalpului</t>
+  </si>
+  <si>
+    <t>STAB. TENS + Denumire</t>
+  </si>
+  <si>
+    <t>nume str+nr.imobil</t>
+  </si>
+  <si>
+    <t>în grade zecimale</t>
+  </si>
+  <si>
+    <t>ex: nume strada + nr</t>
+  </si>
+  <si>
+    <t>BR+Denumire</t>
+  </si>
+  <si>
+    <t>nume Str+nr+Ap</t>
+  </si>
+  <si>
+    <t>Manson</t>
+  </si>
+  <si>
+    <t>ID-ul din IGEA al liniei JT</t>
+  </si>
+  <si>
+    <t>Descrerea BDI a liniei JT</t>
+  </si>
+  <si>
+    <t>nr. crt al tronsonului corespunzator circuitului(din sheet "Tronson_JT)</t>
+  </si>
+  <si>
+    <t>nr. crt al tronsonului corespunzator circuitului 2(din sheet "Tronson_JT)</t>
+  </si>
+  <si>
+    <t>nr. crt al tronsonului corespunzator circuitului 3(din sheet "Tronson_JT)</t>
+  </si>
+  <si>
+    <t>nr. crt al tronsonului corespunzator circuitului 4(din sheet "Tronson_JT)</t>
+  </si>
+  <si>
+    <t>nr. crt al tronsonului corespunzator circuitului 5(din sheet "Tronson_JT)</t>
+  </si>
+  <si>
+    <t>nr. crt al tronsonului corespunzator circuitului 6(din sheet "Tronson_JT)</t>
+  </si>
+  <si>
+    <t>conform listelor</t>
+  </si>
+  <si>
+    <t>Tip legaturi JT</t>
+  </si>
+  <si>
+    <t>Nr crt</t>
+  </si>
+  <si>
+    <t>Nr.crt</t>
+  </si>
+  <si>
+    <t>Nr.crt_Inceput de tronson</t>
+  </si>
+  <si>
+    <t>Nr.crt_Final de tronson</t>
+  </si>
+  <si>
+    <t>Nr.crt_Inceput</t>
+  </si>
+  <si>
+    <t>Nr.crt_sfarsit</t>
+  </si>
+  <si>
+    <t>din sheetul corespunzator</t>
+  </si>
+  <si>
+    <t>Descrierea BD a stalpului</t>
+  </si>
+  <si>
+    <t>nr.ct_Locatia</t>
+  </si>
+  <si>
+    <t>nr.crt a stalpului din sheet 'stalp'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - consola pe cladire ca suport a retelei</t>
+  </si>
+  <si>
+    <t>Se va completa Descrierea BDI pentru Linia JT</t>
+  </si>
+  <si>
+    <t>ID pentru Lina JT si nr.ct pentru brnament</t>
+  </si>
+  <si>
+    <t>Descrierea BDI a Liniei JT</t>
+  </si>
+  <si>
+    <t>conform lista</t>
+  </si>
+  <si>
+    <t>Ex: parter, 1, 2</t>
+  </si>
+  <si>
+    <t>ID_PAPT/Nr.crt_Plecare bransament</t>
+  </si>
+  <si>
+    <t>Nr.crt_Locatia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - este BRANSAMENT-ul
+Se completeaza cu Descierea BDI a bransamentului</t>
+  </si>
+  <si>
+    <t>LINIE JOASA TENSIUNE
+Se completeaza cu Descierea BDI a iniei JT</t>
+  </si>
+  <si>
+    <t>conform lista valori</t>
+  </si>
+  <si>
+    <t>ex: Parter, 1, 2</t>
+  </si>
+  <si>
+    <t>Tipul dispunerii</t>
+  </si>
+  <si>
+    <t>Lista valori: LES</t>
+  </si>
+  <si>
+    <t>NR_CRT</t>
+  </si>
+  <si>
+    <t>DENUM</t>
+  </si>
+  <si>
+    <t>OBS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =MD+Denumire</t>
+  </si>
+  <si>
+    <t>TIP MANSON</t>
+  </si>
+  <si>
+    <t>Descrierea BDI pentru tronson JT</t>
+  </si>
+  <si>
+    <t>Descrierea BDI pentru Linia electrica JT</t>
+  </si>
+  <si>
+    <t>ID Linie electrica JT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Tipul dispunerii + Descrierea instalatiei superioare(este Descrierea BDI a PA/PT) + Denumire</t>
+  </si>
+  <si>
+    <t>SUPORT SIGURANTE 01...nn (se numeroteaza de la stanga la dreapta indiferent de TDRI)</t>
+  </si>
+  <si>
+    <t>lista de valori:
+0,4
+0,5
+1</t>
+  </si>
+  <si>
+    <t>lista de valori:
+LEA JT
+LES JT
+LEA IL
+LES IL</t>
+  </si>
+  <si>
+    <t>Lungimea tronsonului (km)</t>
+  </si>
+  <si>
+    <t>Va fi unic, pentru tronsoanle incluse intr-un set de fisiere xml (!NU unic pe linie JT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descrierea BDI a PA/PT / stâlp / manson de derivatie / firida / consola pe cladire / stabilizator U
+NOTA: Modificarea secțiunii conductorului/cablului sau trecerile de la aerian la subteran și inversa, implică un nou tronson
 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Masuratori topo
+  </si>
+  <si>
+    <t>Descrierea BDI a PA/PT / stâlp / manson de derivatie / firida / consola pe cladire / stabilizator U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lista de valori:
+  LEA JT
+  LES JT
+  LEA IL
+  LES IL
+  LEA JT+IL
+</t>
+  </si>
+  <si>
+    <t>Lista de valori (catalog tronson JT)
+Ex: Al 4x50+1x35</t>
+  </si>
+  <si>
+    <t>coordonate geografice (in format WKT - LINESTRING()) STEREO 70</t>
+  </si>
+  <si>
+    <t>Valori posibile:
+ Masuratori topo
 Vectorizare in plan</t>
-    </r>
-  </si>
-  <si>
-    <t>! Coordonatele LINESTRING() se vor culege din fisiere dwg, dxf, in sistem Stereo 70, desenate ca si polilinie</t>
-  </si>
-  <si>
-    <t>GRUP MASURA+Denumire</t>
-  </si>
-  <si>
-    <t>lista valori</t>
-  </si>
-  <si>
-    <t>DESC +Denumire</t>
-  </si>
-  <si>
-    <t>nr stp.inceput-nr stp.sfarsit</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> = Descrierea BDI a stalpului</t>
-  </si>
-  <si>
-    <t>STAB. TENS + Denumire</t>
-  </si>
-  <si>
-    <t>nume str+nr.imobil</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">20 caractere
+  </si>
+  <si>
+    <t>Va fi unic, pentru deschiderile incluse intr-un set de fisiere xml (!NU unic pe linie JT)</t>
+  </si>
+  <si>
+    <t>Echipamente comunicatii</t>
+  </si>
+  <si>
+    <t>Va fi unic, pentru toti stalpii intr-un set de fisiere xml (!NU unic pe linie JT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URBAN 
+- se numeroteaza crescator incepand de la capatul de inceput al starzii(incepan de la numerele mici la numerele mari)
+ - S = partea stanga a strazii
+ - D = partea dreapta a strazii
+RURAL
+ - se numeroteaza crescator incepand de la PT, pe circuit
 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>de retea:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
- - nume strada+nr
- - stalp(denumire)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>de bransament:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
- - strada+nr</t>
-    </r>
-  </si>
-  <si>
-    <t>în grade zecimale</t>
-  </si>
-  <si>
-    <t>ex: nume strada + nr</t>
-  </si>
-  <si>
-    <t>BR+Denumire</t>
-  </si>
-  <si>
-    <t>nume Str+nr+Ap</t>
-  </si>
-  <si>
-    <t>Manson</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Descrierea BDI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> a PA/PT / stâlp / manson de d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>erivatie /</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> firida / consola pe cladire / stabilizator U</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>NOTA: Modificarea secțiunii conductorului/cablului sau trecerile de la aerian la subteran și inversa, implică un nou tronson</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Descrierea BDI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>a PA/PT / stâlp / manson de derivatie /</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> firida / consola pe cladire / stabilizator U</t>
-    </r>
-  </si>
-  <si>
-    <t>ID-ul din IGEA al liniei JT</t>
-  </si>
-  <si>
-    <t>Descrerea BDI a liniei JT</t>
-  </si>
-  <si>
-    <t>nr. crt al tronsonului corespunzator circuitului(din sheet "Tronson_JT)</t>
-  </si>
-  <si>
-    <t>nr. crt al tronsonului corespunzator circuitului 2(din sheet "Tronson_JT)</t>
-  </si>
-  <si>
-    <t>nr. crt al tronsonului corespunzator circuitului 3(din sheet "Tronson_JT)</t>
-  </si>
-  <si>
-    <t>nr. crt al tronsonului corespunzator circuitului 4(din sheet "Tronson_JT)</t>
-  </si>
-  <si>
-    <t>nr. crt al tronsonului corespunzator circuitului 5(din sheet "Tronson_JT)</t>
-  </si>
-  <si>
-    <t>nr. crt al tronsonului corespunzator circuitului 6(din sheet "Tronson_JT)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Va fi unic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>, pentru tronsoanle incluse intr-un set de fisiere xml (!NU unic pe linie JT)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Va fi unic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>, pentru deschiderile incluse intr-un set de fisiere xml (!NU unic pe linie JT)</t>
-    </r>
-  </si>
-  <si>
-    <t>conform listelor</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Valori posibile:
- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> JT
+  </si>
+  <si>
+    <t>Valori posibile: 
+ Rural
+ Urban</t>
+  </si>
+  <si>
+    <t>Valori posibile:
+  JT
   JT+IL
   MT+JT
   MT+JT+IL
@@ -2613,407 +1759,217 @@
   BR+IL
   MT+PTA+JT
   MT+PTA+JT+IL</t>
-    </r>
-  </si>
-  <si>
-    <t>Tip legaturi JT</t>
-  </si>
-  <si>
-    <t>Nr crt</t>
-  </si>
-  <si>
-    <t>Nr.crt</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Va fi unic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>, pentru toti stalpii intr-un set de fisiere xml (!NU unic pe linie JT)</t>
-    </r>
-  </si>
-  <si>
-    <t>Nr.crt_Inceput de tronson</t>
-  </si>
-  <si>
-    <t>Nr.crt_Final de tronson</t>
-  </si>
-  <si>
-    <t>Nr.crt_Inceput</t>
-  </si>
-  <si>
-    <t>Nr.crt_sfarsit</t>
-  </si>
-  <si>
-    <t>din sheetul corespunzator</t>
-  </si>
-  <si>
-    <t>Descrierea BD a stalpului</t>
-  </si>
-  <si>
-    <t>nr.ct_Locatia</t>
-  </si>
-  <si>
-    <t>nr.crt a stalpului din sheet 'stalp'</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Va fi unic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>, pentru toate stabilizatoarele intr-un set de fisiere xml (!NU unic pe linie JT)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> - consola pe cladire ca suport a retelei</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Va fi unic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>, pentru toate consolele, intr-un set de fisiere xml (!NU unic pe linie JT)</t>
-    </r>
-  </si>
-  <si>
-    <t>Se va completa Descrierea BDI pentru Linia JT</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color indexed="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ATENIE:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> este element de construcţie ce susţine </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color indexed="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>numai conductorul de reţea JT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (A NU SE CONFUNDA CU SUPORTUL DE BRANȘAMENT DIN ȚEAVA !!!)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Poate fi:
+  </si>
+  <si>
+    <t>Valori posibile:
+  Beton
+  Lemn
+  Metal
+  Compozit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - se refera numai la circuitele de retea
+Valori posibile:
+   1
+  2
+  3
+  4
+  5
+  6</t>
+  </si>
+  <si>
+    <t>Valori posibile:
+  Burata
+  Turnata</t>
+  </si>
+  <si>
+    <t>Valori posibile: 
+  Da
+  Nu</t>
+  </si>
+  <si>
+    <t>Valori posibile: 
+ Nu
+lemn
+metal
+beton</t>
+  </si>
+  <si>
+    <t>ex: deteriorat,</t>
+  </si>
+  <si>
+    <t>(amplificator, spilter, camera video)
+Valori posibile: 
+  Da
+  Nu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valori posibile: 
+  C2S
+  C4S
+  C2T
+  C4T
+  C2BR
+  C4BR
 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - Linia JT </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(pentru firida de retea)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
- - bransament </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(pentru firida de bransament)
+  </si>
+  <si>
+    <t>lista:
+sa
+sc
+ia
+ic
+t
+sa/d
+sc/d
+ia/d
+ic/d
+t/d</t>
+  </si>
+  <si>
+    <t>coordonate geografice (in format WKT - POINT()) STEREO 70</t>
+  </si>
+  <si>
+    <t>Valori posibile:
+Masuratori topo
+Vectorizare in plan</t>
+  </si>
+  <si>
+    <t>Va fi unic, pentru toate stabilizatoarele intr-un set de fisiere xml (!NU unic pe linie JT)</t>
+  </si>
+  <si>
+    <t>ATENIE: este element de construcţie ce susţine numai conductorul de reţea JT (A NU SE CONFUNDA CU SUPORTUL DE BRANȘAMENT DIN ȚEAVA !!!)</t>
+  </si>
+  <si>
+    <t>Va fi unic, pentru toate consolele, intr-un set de fisiere xml (!NU unic pe linie JT)</t>
+  </si>
+  <si>
+    <t>Valori posibile: 
+  de acoperis
+  de zid</t>
+  </si>
+  <si>
+    <t>Nr circuite</t>
+  </si>
+  <si>
+    <t>Va fi unic, pentru toate firidele, intr-un set de fisiere xml (!NU unic pe linie JT)</t>
+  </si>
+  <si>
+    <t>20 caractere
+de retea:
+ - nume strada+nr
+ - stalp(denumire)
+de bransament:
+ - strada+nr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poate fi:
+ - Linia JT (pentru firida de retea)
+ - bransament (pentru firida de bransament)
 Se completeaza Descrierea BDI a liiei JT/bansamentului
 </t>
-    </r>
-  </si>
-  <si>
-    <t>ID pentru Lina JT si nr.ct pentru brnament</t>
-  </si>
-  <si>
-    <t>Descrierea BDI a Liniei JT</t>
-  </si>
-  <si>
-    <t>conform lista</t>
-  </si>
-  <si>
-    <t>Ex: parter, 1, 2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Va fi unic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>, pentru toate firidele, intr-un set de fisiere xml (!NU unic pe linie JT)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Va fi unic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>, pentru toate bransamentele, intr-un set de fisiere xml (!NU unic pe linie JT)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">poate fi:
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>stalp
+  </si>
+  <si>
+    <t>lista valori:
+de retea
+de bransament</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valori posibile:
+E1-2
+E1-3
+…..
+</t>
+  </si>
+  <si>
+    <t>Valori posibile: 
+  interior
+  exterior</t>
+  </si>
+  <si>
+    <t>Valori posibile: 
+metal
+policarbonat
+PAFS
+zidite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valori posibile:
+BMPM
+BMPT
+FDCP
+FB1
+FB3
+FM1
+FM3
+FDCS
+COS
+</t>
+  </si>
+  <si>
+    <t>20 caractere
+ - strada+nr
+ - stalp(denumire)</t>
+  </si>
+  <si>
+    <t>Va fi unic, pentru toate bransamentele, intr-un set de fisiere xml (!NU unic pe linie JT)</t>
+  </si>
+  <si>
+    <t>poate fi:
+- stalp
 - PA/PT
 - firida  
 - consola pe cladire
-S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>e completeaza cu Descrierea BDI a stalpului/PA/PT/firida/consola pe cladire, dupa caz</t>
-    </r>
-  </si>
-  <si>
-    <t>ID_PAPT/Nr.crt_Plecare bransament</t>
-  </si>
-  <si>
-    <t>Nr.crt_Locatia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - este BRANSAMENT-ul
-Se completeaza cu Descierea BDI a bransamentului</t>
-  </si>
-  <si>
-    <t>LINIE JOASA TENSIUNE
-Se completeaza cu Descierea BDI a iniei JT</t>
-  </si>
-  <si>
-    <t>conform lista valori</t>
-  </si>
-  <si>
-    <t>ex: Parter, 1, 2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Va fi unic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>, intr-un set de fisiere xml (!NU unic pe linie JT)</t>
-    </r>
-  </si>
-  <si>
-    <t>Tipul dispunerii</t>
-  </si>
-  <si>
-    <t>Lista valori: LES</t>
-  </si>
-  <si>
-    <t>NR_CRT</t>
-  </si>
-  <si>
-    <t>DENUM</t>
-  </si>
-  <si>
-    <t>OBS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID_LOC sau nr.crt </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> =MD+Denumire</t>
-  </si>
-  <si>
-    <t>TIP MANSON</t>
-  </si>
-  <si>
-    <t>Descrierea BDI pentru tronson JT</t>
-  </si>
-  <si>
-    <t>Descrierea BDI pentru Linia electrica JT</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Se va completa, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">din sheet-ul "Tronson_JT", nr. crt. al tronsonului JT </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>din care face parte mansonul</t>
-    </r>
-  </si>
-  <si>
-    <t>ID Linie electrica JT</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Lista Valori:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
+Se completeaza cu Descrierea BDI a stalpului/PA/PT/firida/consola pe cladire, dupa caz</t>
+  </si>
+  <si>
+    <t>Valori posibile:
+  monofazat
+  trifazat</t>
+  </si>
+  <si>
+    <t>Va fi unic, intr-un set de fisiere xml (!NU unic pe linie JT)</t>
+  </si>
+  <si>
+    <t>ID_LOC sau nr.crt</t>
+  </si>
+  <si>
+    <t>Se va completa, din sheet-ul "Tronson_JT", nr. crt. al tronsonului JT din care face parte mansonul</t>
+  </si>
+  <si>
+    <t>Lista Valori:
 De derivatie</t>
-    </r>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>ic</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>sa/d</t>
+  </si>
+  <si>
+    <t>sc/d</t>
+  </si>
+  <si>
+    <t>ia/d</t>
+  </si>
+  <si>
+    <t>ic/d</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3023,21 +1979,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="Calibri"/>
@@ -3055,56 +1997,7 @@
       <charset val="238"/>
     </font>
     <font>
-      <b/>
-      <i/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color indexed="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3113,32 +2006,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color indexed="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3582,38 +2449,38 @@
   </borders>
   <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3622,10 +2489,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3634,300 +2501,300 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="26" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="26" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4233,6 +3100,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC84F0C-BB8B-4AA5-A8C8-D3280D5E3126}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A5:C16"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -4254,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -4262,7 +3130,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>477</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -4270,7 +3138,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4278,10 +3146,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="62" t="s">
-        <v>451</v>
+        <v>422</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>476</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -4289,7 +3157,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C10" s="15"/>
     </row>
@@ -4298,7 +3166,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -4306,7 +3174,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="62" t="s">
-        <v>531</v>
+        <v>484</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -4314,7 +3182,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -4322,7 +3190,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -4330,12 +3198,12 @@
         <v>10</v>
       </c>
       <c r="B15" s="62" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>520</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -4356,9 +3224,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBFEE384-6BDD-4738-B9A3-37CE1F7005EF}">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A2:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -4385,7 +3254,7 @@
   <sheetData>
     <row r="2" spans="1:21" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>518</v>
+        <v>472</v>
       </c>
       <c r="J2" s="54"/>
     </row>
@@ -4394,7 +3263,7 @@
     </row>
     <row r="4" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="73" t="s">
-        <v>548</v>
+        <v>496</v>
       </c>
       <c r="B4" s="38" t="s">
         <v>1</v>
@@ -4403,108 +3272,108 @@
         <v>2</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>488</v>
+        <v>454</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="64" t="s">
-        <v>571</v>
+        <v>511</v>
       </c>
       <c r="G4" s="64" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" s="99" t="s">
-        <v>578</v>
+        <v>517</v>
       </c>
       <c r="J4" s="64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K4" s="64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L4" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="63" t="s">
+      <c r="N4" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="59" t="s">
+      <c r="O4" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="59" t="s">
+      <c r="P4" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="38" t="s">
-        <v>35</v>
-      </c>
       <c r="Q4" s="38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R4" s="38" t="s">
-        <v>478</v>
+        <v>448</v>
       </c>
       <c r="S4" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" s="38" t="s">
         <v>10</v>
-      </c>
-      <c r="T4" s="38" t="s">
-        <v>11</v>
       </c>
       <c r="U4" s="38" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1" ht="239.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" s="1" customFormat="1" ht="240" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>528</v>
+        <v>481</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>529</v>
+        <v>482</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="22" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>516</v>
+        <v>572</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>579</v>
+        <v>518</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>454</v>
+        <v>424</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L5" s="109" t="s">
-        <v>512</v>
+        <v>470</v>
       </c>
       <c r="M5" s="110"/>
       <c r="N5" s="111"/>
       <c r="O5" s="106" t="s">
-        <v>566</v>
+        <v>509</v>
       </c>
       <c r="P5" s="108"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="84" t="s">
-        <v>483</v>
+        <v>537</v>
       </c>
       <c r="S5" s="22" t="s">
-        <v>517</v>
+        <v>555</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U5" s="4"/>
     </row>
@@ -4520,13 +3389,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E80E0051-0D49-4CF1-A1C1-C572F19A79FF}">
-  <sheetPr>
+  <sheetPr codeName="Sheet11">
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:AA235"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4547,850 +3416,151 @@
   <sheetData>
     <row r="1" spans="1:27" s="51" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="73" t="s">
-        <v>548</v>
+        <v>496</v>
       </c>
       <c r="B1" s="80" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" s="80" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="80" t="s">
-        <v>572</v>
+        <v>512</v>
       </c>
       <c r="E1" s="80" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="80" t="s">
-        <v>495</v>
+        <v>461</v>
       </c>
       <c r="G1" s="80" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="K1" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="79" t="s">
+      <c r="L1" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="79" t="s">
-        <v>35</v>
-      </c>
       <c r="M1" s="79" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="N1" s="79" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="O1" s="83" t="s">
-        <v>462</v>
+        <v>432</v>
       </c>
       <c r="P1" s="79" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
       <c r="Q1" s="79" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="R1" s="80" t="s">
         <v>6</v>
       </c>
       <c r="S1" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="81" t="s">
+      <c r="U1" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="U1" s="81" t="s">
+      <c r="V1" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="81" t="s">
+      <c r="W1" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="81" t="s">
+      <c r="X1" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="X1" s="81" t="s">
-        <v>42</v>
-      </c>
       <c r="Y1" s="81" t="s">
-        <v>478</v>
+        <v>448</v>
       </c>
       <c r="Z1" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA1" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="AA1" s="81" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" s="3" customFormat="1" ht="164.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:27" s="3" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" s="68" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
-        <v>573</v>
+        <v>513</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8" t="s">
-        <v>574</v>
+        <v>514</v>
       </c>
       <c r="H2" s="109" t="s">
-        <v>512</v>
+        <v>470</v>
       </c>
       <c r="I2" s="110"/>
       <c r="J2" s="111"/>
       <c r="K2" s="106" t="s">
-        <v>575</v>
+        <v>515</v>
       </c>
       <c r="L2" s="108"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4" t="s">
-        <v>576</v>
+        <v>516</v>
       </c>
       <c r="O2" s="82" t="s">
-        <v>464</v>
+        <v>434</v>
       </c>
       <c r="P2" s="26" t="s">
-        <v>326</v>
+        <v>568</v>
       </c>
       <c r="Q2" s="23" t="s">
-        <v>80</v>
+        <v>566</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S2" s="92" t="s">
-        <v>527</v>
+        <v>480</v>
       </c>
       <c r="T2" s="92" t="s">
-        <v>527</v>
+        <v>480</v>
       </c>
       <c r="U2" s="8"/>
       <c r="V2" s="9" t="s">
-        <v>499</v>
+        <v>464</v>
       </c>
       <c r="W2" s="8"/>
       <c r="X2" s="8"/>
       <c r="Y2" s="13" t="s">
-        <v>501</v>
+        <v>554</v>
       </c>
       <c r="Z2" s="22" t="s">
-        <v>500</v>
+        <v>555</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="3"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="3"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="3"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="3"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="3"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="3"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="3"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="3"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="3"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="3"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="3"/>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="3"/>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="3"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="3"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="3"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="3"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="3"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="3"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="3"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="3"/>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="3"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="3"/>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="3"/>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="3"/>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="3"/>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="3"/>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="3"/>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="3"/>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="3"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="3"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="3"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="3"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="3"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="3"/>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="3"/>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="3"/>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="3"/>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="3"/>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="3"/>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="3"/>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="3"/>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="3"/>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="3"/>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" s="3"/>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="3"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="3"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="3"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="3"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="3"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="3"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="3"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" s="3"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="3"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" s="3"/>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="3"/>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" s="3"/>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" s="3"/>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="3"/>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" s="3"/>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" s="3"/>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" s="3"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="3"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="3"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="3"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="3"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="3"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="3"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="3"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="3"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="3"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="3"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="3"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B108" s="3"/>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B109" s="3"/>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" s="3"/>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111" s="3"/>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B112" s="3"/>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="3"/>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" s="3"/>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" s="3"/>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B116" s="3"/>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117" s="3"/>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B118" s="3"/>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B119" s="3"/>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B120" s="3"/>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B121" s="3"/>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B122" s="3"/>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B123" s="3"/>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B124" s="3"/>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B125" s="3"/>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B126" s="3"/>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B127" s="3"/>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B128" s="3"/>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B129" s="3"/>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B130" s="3"/>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B131" s="3"/>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B132" s="3"/>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B133" s="3"/>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B134" s="3"/>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B135" s="3"/>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B136" s="3"/>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B137" s="3"/>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B138" s="3"/>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B139" s="3"/>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B140" s="3"/>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B141" s="3"/>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B142" s="3"/>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B143" s="3"/>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B144" s="3"/>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B145" s="3"/>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B146" s="3"/>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B147" s="3"/>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B148" s="3"/>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B149" s="3"/>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B150" s="3"/>
-    </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B151" s="3"/>
-    </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B152" s="3"/>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B153" s="3"/>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B154" s="3"/>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B155" s="3"/>
-    </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B156" s="3"/>
-    </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B157" s="3"/>
-    </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B158" s="3"/>
-    </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B159" s="3"/>
-    </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B160" s="3"/>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B161" s="3"/>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B162" s="3"/>
-    </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B163" s="3"/>
-    </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B164" s="3"/>
-    </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B165" s="3"/>
-    </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B166" s="3"/>
-    </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B167" s="3"/>
-    </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B168" s="3"/>
-    </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B169" s="3"/>
-    </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B170" s="3"/>
-    </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B171" s="3"/>
-    </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B172" s="3"/>
-    </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B173" s="3"/>
-    </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B174" s="3"/>
-    </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B175" s="3"/>
-    </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B176" s="3"/>
-    </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B177" s="3"/>
-    </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B178" s="3"/>
-    </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B179" s="3"/>
-    </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B180" s="3"/>
-    </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B181" s="3"/>
-    </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B182" s="3"/>
-    </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B183" s="3"/>
-    </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B184" s="3"/>
-    </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B185" s="3"/>
-    </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B186" s="3"/>
-    </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B187" s="3"/>
-    </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B188" s="3"/>
-    </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B189" s="3"/>
-    </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B190" s="3"/>
-    </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B191" s="3"/>
-    </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B192" s="3"/>
-    </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B193" s="3"/>
-    </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B194" s="3"/>
-    </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B195" s="3"/>
-    </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B196" s="3"/>
-    </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B197" s="3"/>
-    </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B198" s="3"/>
-    </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B199" s="3"/>
-    </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B200" s="3"/>
-    </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B201" s="3"/>
-    </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B202" s="3"/>
-    </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B203" s="3"/>
-    </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B204" s="3"/>
-    </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B205" s="3"/>
-    </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B206" s="3"/>
-    </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B207" s="3"/>
-    </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B208" s="3"/>
-    </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B209" s="3"/>
-    </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B210" s="3"/>
-    </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B211" s="3"/>
-    </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B212" s="3"/>
-    </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B213" s="3"/>
-    </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B214" s="3"/>
-    </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B215" s="3"/>
-    </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B216" s="3"/>
-    </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B217" s="3"/>
-    </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B218" s="3"/>
-    </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B219" s="3"/>
-    </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B220" s="3"/>
-    </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B221" s="3"/>
-    </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B222" s="3"/>
-    </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B223" s="3"/>
-    </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B224" s="3"/>
-    </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B225" s="3"/>
-    </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B226" s="3"/>
-    </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B227" s="3"/>
-    </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B228" s="3"/>
-    </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B229" s="3"/>
-    </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B230" s="3"/>
-    </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B231" s="3"/>
-    </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B232" s="3"/>
-    </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B233" s="3"/>
-    </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B234" s="3"/>
-    </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B235" s="3"/>
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5404,6 +3574,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19109ED6-60B4-471C-AFA5-0E19473A91FD}">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -5427,7 +3598,7 @@
   <sheetData>
     <row r="1" spans="1:15" s="86" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="73" t="s">
-        <v>548</v>
+        <v>496</v>
       </c>
       <c r="B1" s="85" t="s">
         <v>1</v>
@@ -5436,67 +3607,67 @@
         <v>2</v>
       </c>
       <c r="D1" s="79" t="s">
-        <v>572</v>
+        <v>512</v>
       </c>
       <c r="E1" s="79" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="85" t="s">
-        <v>510</v>
+        <v>469</v>
       </c>
       <c r="G1" s="85" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="H1" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="J1" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="59" t="s">
+      <c r="K1" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="87" t="s">
+      <c r="L1" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="79" t="s">
-        <v>35</v>
-      </c>
       <c r="M1" s="79" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="N1" s="79" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="O1" s="79" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="15" customFormat="1" ht="104.25" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="15" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="68" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>530</v>
+        <v>483</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>519</v>
+        <v>473</v>
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="25" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" s="113" t="s">
-        <v>512</v>
+        <v>470</v>
       </c>
       <c r="I2" s="113"/>
       <c r="J2" s="113"/>
       <c r="K2" s="90" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -5514,6 +3685,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57C0CD58-FDD8-4C1E-A213-B116410EED35}">
+  <sheetPr codeName="Sheet13"/>
   <dimension ref="A3:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5534,84 +3706,84 @@
   <sheetData>
     <row r="3" spans="1:18" s="76" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="103" t="s">
-        <v>580</v>
+        <v>519</v>
       </c>
       <c r="B3" s="103" t="s">
-        <v>581</v>
+        <v>520</v>
       </c>
       <c r="C3" s="103" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="103" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="E3" s="103" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" s="103" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="G3" s="103" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="103" t="s">
-        <v>585</v>
+        <v>523</v>
       </c>
       <c r="I3" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="81" t="s">
+      <c r="K3" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="81" t="s">
+      <c r="L3" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="81" t="s">
+      <c r="M3" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="81" t="s">
+      <c r="N3" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="81" t="s">
-        <v>42</v>
-      </c>
       <c r="O3" s="81" t="s">
-        <v>478</v>
+        <v>448</v>
       </c>
       <c r="P3" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="81" t="s">
-        <v>11</v>
-      </c>
       <c r="R3" s="104" t="s">
-        <v>582</v>
+        <v>521</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="102" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="100" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B4" s="101" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="101" t="s">
-        <v>584</v>
+        <v>522</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>586</v>
+        <v>524</v>
       </c>
       <c r="F4" s="101" t="s">
-        <v>589</v>
+        <v>526</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>587</v>
+        <v>525</v>
       </c>
       <c r="H4" s="105" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="I4" s="101"/>
       <c r="J4" s="101"/>
@@ -5631,7 +3803,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B43AD9A-C106-4A42-96B4-6114CFC9E9B7}">
-  <sheetPr>
+  <sheetPr codeName="Sheet14">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:AO128"/>
@@ -5680,119 +3852,119 @@
   <sheetData>
     <row r="1" spans="2:41" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B1" s="37" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H1" s="38" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="J1" s="38" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="L1" s="38" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="N1" s="43" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="O1" s="43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S1" s="47" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="U1" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA1" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="AC1" s="56" t="s">
+        <v>423</v>
+      </c>
+      <c r="AE1" s="56" t="s">
+        <v>418</v>
+      </c>
+      <c r="AG1" s="56" t="s">
         <v>430</v>
       </c>
-      <c r="AC1" s="56" t="s">
-        <v>453</v>
-      </c>
-      <c r="AE1" s="56" t="s">
-        <v>438</v>
-      </c>
-      <c r="AG1" s="56" t="s">
-        <v>460</v>
-      </c>
       <c r="AI1" s="58" t="s">
-        <v>461</v>
+        <v>431</v>
       </c>
       <c r="AK1" s="58" t="s">
-        <v>473</v>
+        <v>443</v>
       </c>
       <c r="AM1" s="58" t="s">
-        <v>467</v>
+        <v>437</v>
       </c>
       <c r="AO1" s="59" t="s">
-        <v>462</v>
+        <v>432</v>
       </c>
     </row>
     <row r="2" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="40" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="F2" s="52" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="11" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="L2" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="N2" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="O2" s="45" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>389</v>
+      </c>
+      <c r="S2" s="45" t="s">
+        <v>398</v>
+      </c>
+      <c r="U2" s="49" t="s">
+        <v>403</v>
+      </c>
+      <c r="W2" s="48" t="s">
         <v>404</v>
       </c>
-      <c r="O2" s="45" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>409</v>
-      </c>
-      <c r="S2" s="45" t="s">
-        <v>418</v>
-      </c>
-      <c r="U2" s="49" t="s">
-        <v>423</v>
-      </c>
-      <c r="W2" s="48" t="s">
-        <v>424</v>
-      </c>
       <c r="Y2" s="50" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="AA2" t="s">
-        <v>431</v>
+        <v>411</v>
       </c>
       <c r="AC2" s="50" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="AE2" s="16" t="s">
-        <v>455</v>
+        <v>425</v>
       </c>
       <c r="AG2" s="18">
         <v>2</v>
@@ -5801,64 +3973,64 @@
         <v>6</v>
       </c>
       <c r="AK2" s="16" t="s">
-        <v>468</v>
+        <v>438</v>
       </c>
       <c r="AM2" s="16" t="s">
-        <v>472</v>
+        <v>442</v>
       </c>
       <c r="AO2" s="57" t="s">
-        <v>463</v>
+        <v>433</v>
       </c>
     </row>
     <row r="3" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="40" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="F3" s="52" t="s">
-        <v>441</v>
+        <v>577</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="L3" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="N3" s="44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O3" s="45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q3" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="S3" s="42" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="U3" s="42" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="W3" s="48" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="Y3" s="50" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="AA3" t="s">
+        <v>406</v>
+      </c>
+      <c r="AC3" s="55" t="s">
+        <v>412</v>
+      </c>
+      <c r="AE3" s="16" t="s">
         <v>426</v>
-      </c>
-      <c r="AC3" s="55" t="s">
-        <v>432</v>
-      </c>
-      <c r="AE3" s="16" t="s">
-        <v>456</v>
       </c>
       <c r="AG3" s="18">
         <v>4</v>
@@ -5867,55 +4039,55 @@
         <v>10</v>
       </c>
       <c r="AK3" s="16" t="s">
-        <v>470</v>
+        <v>440</v>
       </c>
       <c r="AM3" s="16" t="s">
-        <v>469</v>
+        <v>439</v>
       </c>
       <c r="AO3" s="16" t="s">
-        <v>464</v>
+        <v>434</v>
       </c>
     </row>
     <row r="4" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="40" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>442</v>
+        <v>578</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="L4" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="N4" s="44" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="O4" s="45" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="S4" s="42" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="U4" s="42" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="Y4" s="50" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="AC4" s="55" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
       <c r="AE4" s="16" t="s">
-        <v>457</v>
+        <v>427</v>
       </c>
       <c r="AG4" s="18">
         <v>6</v>
@@ -5924,50 +4096,50 @@
         <v>16</v>
       </c>
       <c r="AK4" s="16" t="s">
-        <v>471</v>
+        <v>441</v>
       </c>
       <c r="AM4" s="16"/>
     </row>
     <row r="5" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="40" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>443</v>
+        <v>579</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="L5" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="N5" s="44" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="O5" s="45" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="S5" s="42" t="s">
-        <v>412</v>
+        <v>392</v>
       </c>
       <c r="U5" s="42" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="Y5" s="50" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="AC5" s="55" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="AE5" s="16" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="AG5" s="18">
         <v>8</v>
@@ -5979,37 +4151,37 @@
     </row>
     <row r="6" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="40" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="F6" s="52" t="s">
-        <v>444</v>
+        <v>580</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="L6" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="N6" s="42"/>
       <c r="O6" s="46" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
       <c r="S6" s="42" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="Y6" s="23"/>
       <c r="AC6" s="55" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="AE6" s="16" t="s">
-        <v>458</v>
+        <v>428</v>
       </c>
       <c r="AG6" s="18">
         <v>10</v>
@@ -6020,32 +4192,32 @@
     </row>
     <row r="7" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="40" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>445</v>
+        <v>581</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="L7" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="S7" s="42" t="s">
+        <v>396</v>
+      </c>
+      <c r="AC7" s="55" t="s">
         <v>416</v>
       </c>
-      <c r="AC7" s="55" t="s">
-        <v>436</v>
-      </c>
       <c r="AE7" s="16" t="s">
-        <v>459</v>
+        <v>429</v>
       </c>
       <c r="AG7" s="18">
         <v>12</v>
@@ -6056,26 +4228,26 @@
     </row>
     <row r="8" spans="2:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="40" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>446</v>
+        <v>582</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="L8" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="S8" s="42" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="AG8" s="18">
         <v>16</v>
@@ -6087,26 +4259,26 @@
     </row>
     <row r="9" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="40" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="F9" s="52" t="s">
-        <v>447</v>
+        <v>583</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="L9" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="S9" s="42" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
       <c r="AG9" s="18">
         <v>20</v>
@@ -6117,23 +4289,23 @@
     </row>
     <row r="10" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="40" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="F10" s="52" t="s">
-        <v>448</v>
+        <v>584</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="L10" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="AG10" s="18">
         <v>25</v>
@@ -6144,20 +4316,20 @@
     </row>
     <row r="11" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="40" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="F11" s="52" t="s">
-        <v>449</v>
+        <v>421</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="AG11" s="18">
         <v>32</v>
@@ -6168,17 +4340,17 @@
     </row>
     <row r="12" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="39" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="K12" s="12"/>
       <c r="AG12" s="18">
@@ -6190,17 +4362,17 @@
     </row>
     <row r="13" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="39" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="AG13" s="18">
         <v>50</v>
@@ -6211,17 +4383,17 @@
     </row>
     <row r="14" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="39" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="AG14" s="18">
         <v>63</v>
@@ -6232,17 +4404,17 @@
     </row>
     <row r="15" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="39" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="AG15" s="18">
         <v>80</v>
@@ -6253,17 +4425,17 @@
     </row>
     <row r="16" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="39" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="AG16" s="18">
         <v>100</v>
@@ -6274,17 +4446,17 @@
     </row>
     <row r="17" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="39" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="AG17" s="18">
         <v>125</v>
@@ -6295,17 +4467,17 @@
     </row>
     <row r="18" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="39" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="AG18" s="18">
         <v>160</v>
@@ -6316,17 +4488,17 @@
     </row>
     <row r="19" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="39" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="AG19" s="18">
         <v>200</v>
@@ -6337,17 +4509,17 @@
     </row>
     <row r="20" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="39" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="AG20" s="18">
         <v>224</v>
@@ -6358,17 +4530,17 @@
     </row>
     <row r="21" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="39" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="AG21" s="18">
         <v>250</v>
@@ -6379,17 +4551,17 @@
     </row>
     <row r="22" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="39" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="AG22" s="18">
         <v>315</v>
@@ -6400,17 +4572,17 @@
     </row>
     <row r="23" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="39" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="AG23" s="18">
         <v>400</v>
@@ -6421,17 +4593,17 @@
     </row>
     <row r="24" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="39" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="AG24" s="18">
         <v>500</v>
@@ -6439,17 +4611,17 @@
     </row>
     <row r="25" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="39" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="AG25" s="18">
         <v>630</v>
@@ -6457,17 +4629,17 @@
     </row>
     <row r="26" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="39" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="AG26" s="18">
         <v>800</v>
@@ -6475,17 +4647,17 @@
     </row>
     <row r="27" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="39" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="AG27" s="18">
         <v>1000</v>
@@ -6493,17 +4665,17 @@
     </row>
     <row r="28" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B28" s="11" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="39" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="AG28" s="18">
         <v>1250</v>
@@ -6511,839 +4683,839 @@
     </row>
     <row r="29" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B29" s="11" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="39" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="39" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="39" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="39" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="H32" s="20" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="39" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B34" s="11" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="C34" s="12"/>
       <c r="J34" s="11" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B35" s="11" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="C35" s="12"/>
       <c r="J35" s="11" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="C36" s="12"/>
       <c r="J36" s="11" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B37" s="11" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="C37" s="12"/>
       <c r="J37" s="11" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B38" s="11" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="C38" s="12"/>
       <c r="J38" s="11" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B39" s="11" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="C39" s="12"/>
       <c r="J39" s="11" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B40" s="11" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="C40" s="12"/>
       <c r="J40" s="11" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B41" s="11" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="C41" s="12"/>
       <c r="J41" s="11" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B42" s="11" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="C42" s="12"/>
       <c r="J42" s="11" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B43" s="11" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="C43" s="12"/>
       <c r="J43" s="11" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B44" s="11" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="C44" s="12"/>
       <c r="J44" s="11" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B45" s="11" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="C45" s="12"/>
       <c r="J45" s="11" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B46" s="11" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="C46" s="12"/>
       <c r="J46" s="11" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B47" s="11" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="C47" s="12"/>
       <c r="J47" s="11" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B48" s="11" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="C48" s="12"/>
       <c r="J48" s="11" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="11" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="C49" s="12"/>
       <c r="J49" s="11" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="11" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="C50" s="12"/>
       <c r="J50" s="11" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="11" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C51" s="12"/>
       <c r="J51" s="11" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="11" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C52" s="12"/>
       <c r="J52" s="11" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="11" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C53" s="12"/>
       <c r="J53" s="11" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="11" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="C54" s="12"/>
       <c r="J54" s="11" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="11" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="C55" s="12"/>
       <c r="J55" s="11" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="11" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C56" s="12"/>
       <c r="J56" s="11" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" s="11" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="C57" s="12"/>
       <c r="J57" s="11" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" s="11" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="C58" s="12"/>
       <c r="J58" s="11" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" s="11" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="C59" s="12"/>
       <c r="J59" s="11" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" s="11" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="C60" s="12"/>
       <c r="J60" s="11" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" s="11" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="C61" s="12"/>
       <c r="J61" s="11" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" s="11" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="C62" s="12"/>
       <c r="J62" s="11" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63" s="11" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="C63" s="12"/>
       <c r="J63" s="11" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64" s="11" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="C64" s="12"/>
       <c r="J64" s="11" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65" s="11" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="C65" s="12"/>
       <c r="J65" s="11" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66" s="11" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="C66" s="12"/>
       <c r="J66" s="11" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67" s="11" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="C67" s="12"/>
       <c r="J67" s="11" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B68" s="11" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="C68" s="12"/>
       <c r="J68" s="11" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B69" s="11" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="C69" s="12"/>
       <c r="J69" s="11" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B70" s="11" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C70" s="12"/>
       <c r="J70" s="11" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B71" s="11" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="C71" s="12"/>
       <c r="J71" s="11" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B72" s="11" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="C72" s="12"/>
       <c r="J72" s="11" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B73" s="11" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="C73" s="12"/>
       <c r="J73" s="11" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B74" s="11" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="C74" s="12"/>
       <c r="J74" s="11" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B75" s="11" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="C75" s="12"/>
       <c r="J75" s="11" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B76" s="11" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="C76" s="12"/>
       <c r="J76" s="11" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B77" s="11" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="C77" s="12"/>
       <c r="J77" s="11" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B78" s="11" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="C78" s="12"/>
       <c r="J78" s="11" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B79" s="11" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="C79" s="12"/>
       <c r="J79" s="11" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B80" s="11" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="C80" s="12"/>
       <c r="J80" s="11" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B81" s="11" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="C81" s="12"/>
       <c r="J81" s="11" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82" s="11" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="C82" s="12"/>
       <c r="J82" s="11" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B83" s="11" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="C83" s="12"/>
       <c r="J83" s="11" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B84" s="11" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="C84" s="12"/>
       <c r="J84" s="11" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B85" s="11" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="C85" s="12"/>
       <c r="J85" s="11" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B86" s="11" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="C86" s="12"/>
       <c r="J86" s="11" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B87" s="11" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="C87" s="12"/>
       <c r="J87" s="11" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B88" s="11" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="C88" s="12"/>
       <c r="J88" s="11" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B89" s="11" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="C89" s="12"/>
       <c r="J89" s="11" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B90" s="11" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="C90" s="12"/>
       <c r="J90" s="11" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B91" s="11" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="C91" s="12"/>
       <c r="J91" s="11" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B92" s="11" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="C92" s="12"/>
       <c r="J92" s="11" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B93" s="11" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="C93" s="12"/>
       <c r="J93" s="11" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B94" s="11" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="C94" s="12"/>
       <c r="J94" s="11" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B95" s="11" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="C95" s="12"/>
       <c r="J95" s="11" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B96" s="11" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="C96" s="12"/>
       <c r="J96" s="11" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B97" s="11" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="C97" s="12"/>
       <c r="J97" s="11" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B98" s="11" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="C98" s="12"/>
       <c r="J98" s="11" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B99" s="11" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="C99" s="12"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B100" s="11" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="C100" s="12"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B101" s="11" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="C101" s="12"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B102" s="11" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="C102" s="12"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B103" s="11" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="C103" s="12"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B104" s="11" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="C104" s="12"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B105" s="11" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="C105" s="12"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B106" s="11" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="C106" s="12"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B107" s="11" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="C107" s="12"/>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B108" s="11" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="C108" s="12"/>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B109" s="11" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="C109" s="12"/>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B110" s="11" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="C110" s="12"/>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B111" s="11" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="C111" s="12"/>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B112" s="11" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="C112" s="12"/>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="11" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="C113" s="12"/>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="11" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="C114" s="12"/>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="11" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="C115" s="12"/>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="11" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="C116" s="12"/>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" s="11" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="C117" s="12"/>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" s="11" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="C118" s="12"/>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119" s="11" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="C119" s="12"/>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" s="11" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="C120" s="12"/>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121" s="11" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="C121" s="12"/>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" s="11" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="C122" s="12"/>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123" s="11" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="C123" s="12"/>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124" s="11" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="C124" s="12"/>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125" s="11" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="C125" s="12"/>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B126" s="11" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="C126" s="12"/>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127" s="11" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="C127" s="12"/>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128" s="11" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="C128" s="12"/>
     </row>
@@ -7355,6 +5527,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4633526C-720A-4BF4-A72E-62BAA05BB225}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -7384,7 +5557,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="38" t="s">
         <v>3</v>
@@ -7396,29 +5569,29 @@
         <v>5</v>
       </c>
       <c r="H1" s="38" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>479</v>
+        <v>527</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>9</v>
+        <v>528</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>78</v>
+        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -7429,6 +5602,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0256970-E8F5-4A8A-B601-7287BA6F6F78}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:U6"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -7460,13 +5634,13 @@
   <sheetData>
     <row r="2" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="93" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B2" s="19"/>
     </row>
     <row r="3" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="93" t="s">
-        <v>484</v>
+        <v>451</v>
       </c>
       <c r="B3" s="19"/>
     </row>
@@ -7476,7 +5650,7 @@
     </row>
     <row r="5" spans="1:21" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>0</v>
@@ -7488,52 +5662,52 @@
         <v>2</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>488</v>
+        <v>454</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>3</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>550</v>
+        <v>497</v>
       </c>
       <c r="I5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="K5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="17" t="s">
-        <v>551</v>
-      </c>
-      <c r="K5" s="17" t="s">
+      <c r="L5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="17" t="s">
-        <v>14</v>
-      </c>
       <c r="M5" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N5" s="65" t="s">
-        <v>70</v>
+        <v>531</v>
       </c>
       <c r="O5" s="67" t="s">
-        <v>478</v>
+        <v>448</v>
       </c>
       <c r="P5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="R5" s="66" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="S5" s="66" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="T5" s="66" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="U5" s="17" t="s">
         <v>7</v>
@@ -7541,51 +5715,51 @@
     </row>
     <row r="6" spans="1:21" s="10" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="68" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="B6" s="68"/>
       <c r="C6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>21</v>
-      </c>
       <c r="E6" s="21" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>554</v>
+        <v>501</v>
       </c>
       <c r="I6" s="94" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>554</v>
+        <v>501</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>100</v>
+        <v>535</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>69</v>
+        <v>536</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>486</v>
+        <v>452</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>483</v>
+        <v>537</v>
       </c>
       <c r="P6" s="22" t="s">
-        <v>498</v>
+        <v>538</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
@@ -7600,6 +5774,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4959B7D4-3092-4E67-9621-2FB194203EA8}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A2:X3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -7635,7 +5810,7 @@
   <sheetData>
     <row r="2" spans="1:24" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>548</v>
+        <v>496</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>1</v>
@@ -7644,64 +5819,64 @@
         <v>2</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>488</v>
+        <v>454</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>552</v>
+        <v>499</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>500</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="17" t="s">
-        <v>553</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="V2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="W2" s="67" t="s">
-        <v>478</v>
+        <v>448</v>
       </c>
       <c r="X2" s="67" t="s">
         <v>7</v>
@@ -7709,64 +5884,64 @@
     </row>
     <row r="3" spans="1:24" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="68" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>521</v>
+        <v>475</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>534</v>
+        <v>485</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>535</v>
+        <v>486</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>554</v>
+        <v>501</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>554</v>
+        <v>501</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J3" s="24"/>
       <c r="K3" s="24" t="s">
-        <v>536</v>
+        <v>487</v>
       </c>
       <c r="L3" s="24"/>
       <c r="M3" s="24" t="s">
-        <v>537</v>
+        <v>488</v>
       </c>
       <c r="N3" s="24"/>
       <c r="O3" s="24" t="s">
-        <v>538</v>
+        <v>489</v>
       </c>
       <c r="P3" s="24"/>
       <c r="Q3" s="24" t="s">
-        <v>539</v>
+        <v>490</v>
       </c>
       <c r="R3" s="24"/>
       <c r="S3" s="24" t="s">
-        <v>540</v>
+        <v>491</v>
       </c>
       <c r="T3" s="24"/>
       <c r="U3" s="24" t="s">
-        <v>541</v>
+        <v>492</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>487</v>
+        <v>453</v>
       </c>
       <c r="W3" s="13" t="s">
-        <v>483</v>
+        <v>537</v>
       </c>
       <c r="X3" s="21" t="s">
-        <v>481</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -7777,10 +5952,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D852CA5-9315-4930-BAD2-2CCC921767B7}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A2:AY4"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="AD2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AO9" sqref="AO9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7831,10 +6007,10 @@
     </row>
     <row r="3" spans="1:51" s="3" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>547</v>
+        <v>495</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>502</v>
+        <v>465</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -7843,142 +6019,142 @@
         <v>2</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>474</v>
+        <v>444</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="O3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="S3" s="67" t="s">
+      <c r="U3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB3" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC3" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD3" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE3" s="78" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF3" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG3" s="70" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH3" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="T3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y3" s="2" t="s">
+      <c r="AI3" s="70" t="s">
+        <v>540</v>
+      </c>
+      <c r="AJ3" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Z3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB3" s="78" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC3" s="69" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD3" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE3" s="78" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF3" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG3" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH3" s="88" t="s">
-        <v>95</v>
-      </c>
-      <c r="AI3" s="70" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ3" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="AL3" s="53" t="s">
-        <v>546</v>
+        <v>494</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AN3" s="70" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AO3" s="70" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="AP3" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ3" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="AQ3" s="53" t="s">
+      <c r="AR3" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="AR3" s="53" t="s">
+      <c r="AS3" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="AS3" s="53" t="s">
+      <c r="AT3" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="AT3" s="53" t="s">
+      <c r="AU3" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="AU3" s="53" t="s">
-        <v>42</v>
-      </c>
       <c r="AV3" s="53" t="s">
-        <v>478</v>
+        <v>448</v>
       </c>
       <c r="AW3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX3" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="AX3" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="AY3" s="2" t="s">
         <v>7</v>
@@ -7986,129 +6162,129 @@
     </row>
     <row r="4" spans="1:51" s="15" customFormat="1" ht="208.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="35" t="s">
-        <v>480</v>
+        <v>542</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="9" t="s">
-        <v>496</v>
+        <v>462</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="H4" s="25"/>
       <c r="I4" s="22" t="s">
-        <v>83</v>
+        <v>543</v>
       </c>
       <c r="J4" s="106" t="s">
-        <v>482</v>
+        <v>450</v>
       </c>
       <c r="K4" s="107"/>
       <c r="L4" s="108"/>
       <c r="M4" s="106" t="s">
-        <v>544</v>
+        <v>493</v>
       </c>
       <c r="N4" s="108"/>
       <c r="O4" s="22" t="s">
+        <v>544</v>
+      </c>
+      <c r="P4" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="P4" s="9" t="s">
-        <v>84</v>
-      </c>
       <c r="Q4" s="25" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>129</v>
+        <v>546</v>
       </c>
       <c r="S4" s="22" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>82</v>
+        <v>547</v>
       </c>
       <c r="U4" s="9" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="V4" s="23" t="s">
-        <v>81</v>
+        <v>548</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="X4" s="23" t="s">
-        <v>134</v>
+        <v>549</v>
       </c>
       <c r="Y4" s="25" t="s">
-        <v>106</v>
+        <v>550</v>
       </c>
       <c r="Z4" s="23" t="s">
-        <v>81</v>
+        <v>548</v>
       </c>
       <c r="AA4" s="9" t="s">
-        <v>475</v>
+        <v>445</v>
       </c>
       <c r="AB4" s="25"/>
       <c r="AC4" s="23" t="s">
-        <v>81</v>
+        <v>548</v>
       </c>
       <c r="AD4" s="23"/>
       <c r="AE4" s="23"/>
       <c r="AF4" s="23" t="s">
-        <v>81</v>
+        <v>548</v>
       </c>
       <c r="AG4" s="23"/>
       <c r="AH4" s="23"/>
       <c r="AI4" s="23" t="s">
-        <v>108</v>
+        <v>551</v>
       </c>
       <c r="AJ4" s="23" t="s">
-        <v>81</v>
+        <v>548</v>
       </c>
       <c r="AK4" s="23" t="s">
-        <v>89</v>
+        <v>552</v>
       </c>
       <c r="AL4" s="4" t="s">
-        <v>450</v>
+        <v>553</v>
       </c>
       <c r="AM4" s="23" t="s">
-        <v>81</v>
+        <v>548</v>
       </c>
       <c r="AN4" s="23" t="s">
-        <v>81</v>
+        <v>548</v>
       </c>
       <c r="AO4" s="23" t="s">
-        <v>81</v>
+        <v>548</v>
       </c>
       <c r="AP4" s="92" t="s">
-        <v>527</v>
+        <v>480</v>
       </c>
       <c r="AQ4" s="92" t="s">
-        <v>527</v>
+        <v>480</v>
       </c>
       <c r="AR4" s="25"/>
       <c r="AS4" s="9" t="s">
-        <v>499</v>
+        <v>464</v>
       </c>
       <c r="AT4" s="25"/>
       <c r="AU4" s="25"/>
       <c r="AV4" s="13" t="s">
-        <v>501</v>
+        <v>554</v>
       </c>
       <c r="AW4" s="22" t="s">
-        <v>500</v>
+        <v>555</v>
       </c>
       <c r="AX4" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY4" s="9" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -8123,6 +6299,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9410C7DA-ECA8-4CB5-8B16-AD89D16DCBCE}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A3:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8143,7 +6320,7 @@
   <sheetData>
     <row r="3" spans="1:8" s="74" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="73" t="s">
-        <v>548</v>
+        <v>496</v>
       </c>
       <c r="B3" s="63" t="s">
         <v>1</v>
@@ -8152,40 +6329,40 @@
         <v>2</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>556</v>
+        <v>503</v>
       </c>
       <c r="E3" s="38" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="73" t="s">
-        <v>495</v>
+        <v>461</v>
       </c>
       <c r="G3" s="73" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="73" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="12" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B4" s="89" t="s">
-        <v>523</v>
+        <v>477</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="D4" s="89" t="s">
-        <v>557</v>
+        <v>504</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>555</v>
+        <v>502</v>
       </c>
       <c r="F4" s="33"/>
       <c r="G4" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" s="32"/>
     </row>
@@ -8197,6 +6374,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7E36C7-E52B-4013-9E61-73E388EE969D}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -8221,13 +6399,13 @@
   <sheetData>
     <row r="1" spans="1:17" s="3" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="96" t="s">
-        <v>559</v>
+        <v>505</v>
       </c>
       <c r="B1" s="95"/>
     </row>
     <row r="2" spans="1:17" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="98" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8235,7 +6413,7 @@
     </row>
     <row r="4" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="73" t="s">
-        <v>548</v>
+        <v>496</v>
       </c>
       <c r="B4" s="63" t="s">
         <v>1</v>
@@ -8244,89 +6422,89 @@
         <v>2</v>
       </c>
       <c r="D4" s="63" t="s">
-        <v>497</v>
+        <v>463</v>
       </c>
       <c r="E4" s="63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="63" t="s">
-        <v>495</v>
+        <v>461</v>
       </c>
       <c r="G4" s="63" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="71" t="s">
+      <c r="K4" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="L4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="71" t="s">
+      <c r="M4" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="71" t="s">
+      <c r="N4" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="71" t="s">
-        <v>42</v>
-      </c>
       <c r="O4" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="63" t="s">
-        <v>11</v>
-      </c>
       <c r="Q4" s="63" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" s="31" customFormat="1" ht="164.25" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="31" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="C5" s="75" t="s">
-        <v>505</v>
+        <v>467</v>
       </c>
       <c r="D5" s="30"/>
       <c r="E5" s="30" t="s">
-        <v>561</v>
+        <v>506</v>
       </c>
       <c r="F5" s="30"/>
       <c r="G5" s="30" t="s">
-        <v>561</v>
+        <v>506</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>452</v>
+        <v>559</v>
       </c>
       <c r="I5" s="92" t="s">
-        <v>527</v>
+        <v>480</v>
       </c>
       <c r="J5" s="92" t="s">
-        <v>527</v>
+        <v>480</v>
       </c>
       <c r="K5" s="28"/>
       <c r="L5" s="27" t="s">
-        <v>503</v>
+        <v>466</v>
       </c>
       <c r="M5" s="28"/>
       <c r="N5" s="28"/>
       <c r="O5" s="29" t="s">
-        <v>504</v>
+        <v>538</v>
       </c>
       <c r="P5" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="13" t="s">
-        <v>501</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -8337,13 +6515,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA404D18-9269-4774-897C-D87C89AE00E7}">
-  <sheetPr>
+  <sheetPr codeName="Sheet8">
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:AF101"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8388,477 +6566,183 @@
     </row>
     <row r="2" spans="1:32" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="73" t="s">
-        <v>548</v>
+        <v>496</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="63" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="63" t="s">
-        <v>488</v>
+        <v>454</v>
       </c>
       <c r="E2" s="63" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="63" t="s">
-        <v>495</v>
+        <v>461</v>
       </c>
       <c r="G2" s="63" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="63" t="s">
+      <c r="J2" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="59" t="s">
+      <c r="K2" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="59" t="s">
+      <c r="L2" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="59" t="s">
+      <c r="M2" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="59" t="s">
-        <v>36</v>
-      </c>
       <c r="N2" s="59" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="O2" s="78" t="s">
-        <v>462</v>
+        <v>432</v>
       </c>
       <c r="P2" s="59" t="s">
-        <v>465</v>
+        <v>435</v>
       </c>
       <c r="Q2" s="59" t="s">
-        <v>509</v>
+        <v>468</v>
       </c>
       <c r="R2" s="59" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="S2" s="59" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="T2" s="59" t="s">
-        <v>115</v>
+        <v>560</v>
       </c>
       <c r="U2" s="59" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
       <c r="V2" s="59" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="W2" s="72" t="s">
         <v>6</v>
       </c>
       <c r="X2" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="Y2" s="81" t="s">
+      <c r="Z2" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="Z2" s="81" t="s">
+      <c r="AA2" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="AA2" s="81" t="s">
+      <c r="AB2" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="AB2" s="81" t="s">
+      <c r="AC2" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="AC2" s="81" t="s">
-        <v>42</v>
-      </c>
       <c r="AD2" s="81" t="s">
-        <v>478</v>
+        <v>448</v>
       </c>
       <c r="AE2" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF2" s="81" t="s">
         <v>10</v>
-      </c>
-      <c r="AF2" s="81" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:32" s="15" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="68" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="B3" s="91" t="s">
-        <v>526</v>
+        <v>562</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>564</v>
+        <v>507</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>563</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8" t="s">
-        <v>565</v>
+        <v>508</v>
       </c>
       <c r="H3" s="109" t="s">
-        <v>512</v>
+        <v>470</v>
       </c>
       <c r="I3" s="110"/>
       <c r="J3" s="111"/>
       <c r="K3" s="106" t="s">
-        <v>566</v>
+        <v>509</v>
       </c>
       <c r="L3" s="108"/>
       <c r="M3" s="25"/>
       <c r="N3" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="P3" s="26" t="s">
+        <v>565</v>
+      </c>
+      <c r="Q3" s="23" t="s">
+        <v>566</v>
+      </c>
+      <c r="R3" s="23" t="s">
         <v>567</v>
       </c>
-      <c r="O3" s="9" t="s">
-        <v>511</v>
-      </c>
-      <c r="P3" s="26" t="s">
-        <v>513</v>
-      </c>
-      <c r="Q3" s="23" t="s">
-        <v>506</v>
-      </c>
-      <c r="R3" s="23" t="s">
-        <v>507</v>
-      </c>
       <c r="S3" s="23" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="T3" s="23" t="s">
-        <v>515</v>
+        <v>100</v>
       </c>
       <c r="U3" s="26" t="s">
-        <v>508</v>
+        <v>568</v>
       </c>
       <c r="V3" s="23" t="s">
-        <v>506</v>
+        <v>566</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X3" s="92" t="s">
-        <v>527</v>
+        <v>480</v>
       </c>
       <c r="Y3" s="92" t="s">
-        <v>527</v>
+        <v>480</v>
       </c>
       <c r="Z3" s="8"/>
       <c r="AA3" s="9" t="s">
-        <v>499</v>
+        <v>464</v>
       </c>
       <c r="AB3" s="8"/>
       <c r="AC3" s="8"/>
       <c r="AD3" s="13" t="s">
-        <v>501</v>
+        <v>554</v>
       </c>
       <c r="AE3" s="22" t="s">
-        <v>500</v>
+        <v>555</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="3"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="3"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="3"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="3"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="3"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="3"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="3"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="3"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="3"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="3"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="3"/>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="3"/>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="3"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="3"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="3"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="3"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="3"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="3"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="3"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="3"/>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="3"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="3"/>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="3"/>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="3"/>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="3"/>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="3"/>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="3"/>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="3"/>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="3"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="3"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="3"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="3"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="3"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="3"/>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="3"/>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="3"/>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="3"/>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="3"/>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="3"/>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="3"/>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="3"/>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="3"/>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="3"/>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" s="3"/>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="3"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="3"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="3"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="3"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="3"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="3"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="3"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" s="3"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="3"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" s="3"/>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="3"/>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" s="3"/>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" s="3"/>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="3"/>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" s="3"/>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" s="3"/>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" s="3"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="3"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="3"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="3"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="3"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="3"/>
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8873,13 +6757,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91192F24-AE02-4FC1-A14A-2ED25112D767}">
-  <sheetPr>
+  <sheetPr codeName="Sheet9">
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:AB231"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8908,846 +6792,159 @@
   <sheetData>
     <row r="1" spans="1:28" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="73" t="s">
-        <v>548</v>
+        <v>496</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>488</v>
+        <v>454</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>495</v>
+        <v>461</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="K1" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="L1" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="53" t="s">
-        <v>35</v>
-      </c>
       <c r="M1" s="78" t="s">
-        <v>462</v>
+        <v>432</v>
       </c>
       <c r="N1" s="17" t="s">
-        <v>465</v>
+        <v>435</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>509</v>
+        <v>468</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="Q1" s="53" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>115</v>
+        <v>560</v>
       </c>
       <c r="S1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="T1" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="81" t="s">
+      <c r="V1" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="81" t="s">
+      <c r="W1" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="W1" s="81" t="s">
+      <c r="X1" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="X1" s="81" t="s">
+      <c r="Y1" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="Y1" s="81" t="s">
-        <v>42</v>
-      </c>
       <c r="Z1" s="81" t="s">
-        <v>478</v>
+        <v>448</v>
       </c>
       <c r="AA1" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB1" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="81" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" s="3" customFormat="1" ht="164.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:28" s="3" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" s="68" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="B2" s="77" t="s">
-        <v>109</v>
+        <v>569</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="8" t="s">
-        <v>565</v>
+        <v>508</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8" t="s">
-        <v>565</v>
+        <v>508</v>
       </c>
       <c r="H2" s="109" t="s">
-        <v>512</v>
+        <v>470</v>
       </c>
       <c r="I2" s="110"/>
       <c r="J2" s="111"/>
       <c r="K2" s="106" t="s">
-        <v>566</v>
+        <v>509</v>
       </c>
       <c r="L2" s="108"/>
       <c r="M2" s="82" t="s">
-        <v>463</v>
+        <v>433</v>
       </c>
       <c r="N2" s="26" t="s">
-        <v>514</v>
+        <v>471</v>
       </c>
       <c r="O2" s="23" t="s">
-        <v>80</v>
+        <v>566</v>
       </c>
       <c r="P2" s="23" t="s">
-        <v>135</v>
+        <v>567</v>
       </c>
       <c r="Q2" s="23" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="R2" s="23" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T2" s="92" t="s">
-        <v>527</v>
+        <v>480</v>
       </c>
       <c r="U2" s="92" t="s">
-        <v>527</v>
+        <v>480</v>
       </c>
       <c r="V2" s="8"/>
       <c r="W2" s="9" t="s">
-        <v>499</v>
+        <v>464</v>
       </c>
       <c r="X2" s="8"/>
       <c r="Y2" s="8"/>
       <c r="Z2" s="13" t="s">
-        <v>501</v>
+        <v>554</v>
       </c>
       <c r="AA2" s="22" t="s">
-        <v>500</v>
+        <v>555</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="3"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="3"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="3"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="3"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="3"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="3"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="3"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="3"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="3"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="3"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="3"/>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="3"/>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="3"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="3"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="3"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="3"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="3"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="3"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="3"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="3"/>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="3"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="3"/>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="3"/>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="3"/>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="3"/>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="3"/>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="3"/>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="3"/>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="3"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="3"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="3"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="3"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="3"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="3"/>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="3"/>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="3"/>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="3"/>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="3"/>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="3"/>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="3"/>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="3"/>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="3"/>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="3"/>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" s="3"/>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="3"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="3"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="3"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="3"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="3"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="3"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="3"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" s="3"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="3"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" s="3"/>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="3"/>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" s="3"/>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" s="3"/>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="3"/>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" s="3"/>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" s="3"/>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" s="3"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="3"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="3"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="3"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="3"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="3"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="3"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="3"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="3"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="3"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="3"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="3"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B108" s="3"/>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B109" s="3"/>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" s="3"/>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111" s="3"/>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B112" s="3"/>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="3"/>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" s="3"/>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" s="3"/>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B116" s="3"/>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117" s="3"/>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B118" s="3"/>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B119" s="3"/>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B120" s="3"/>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B121" s="3"/>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B122" s="3"/>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B123" s="3"/>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B124" s="3"/>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B125" s="3"/>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B126" s="3"/>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B127" s="3"/>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B128" s="3"/>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B129" s="3"/>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B130" s="3"/>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B131" s="3"/>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B132" s="3"/>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B133" s="3"/>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B134" s="3"/>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B135" s="3"/>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B136" s="3"/>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B137" s="3"/>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B138" s="3"/>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B139" s="3"/>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B140" s="3"/>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B141" s="3"/>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B142" s="3"/>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B143" s="3"/>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B144" s="3"/>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B145" s="3"/>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B146" s="3"/>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B147" s="3"/>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B148" s="3"/>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B149" s="3"/>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B150" s="3"/>
-    </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B151" s="3"/>
-    </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B152" s="3"/>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B153" s="3"/>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B154" s="3"/>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B155" s="3"/>
-    </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B156" s="3"/>
-    </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B157" s="3"/>
-    </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B158" s="3"/>
-    </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B159" s="3"/>
-    </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B160" s="3"/>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B161" s="3"/>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B162" s="3"/>
-    </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B163" s="3"/>
-    </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B164" s="3"/>
-    </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B165" s="3"/>
-    </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B166" s="3"/>
-    </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B167" s="3"/>
-    </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B168" s="3"/>
-    </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B169" s="3"/>
-    </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B170" s="3"/>
-    </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B171" s="3"/>
-    </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B172" s="3"/>
-    </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B173" s="3"/>
-    </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B174" s="3"/>
-    </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B175" s="3"/>
-    </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B176" s="3"/>
-    </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B177" s="3"/>
-    </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B178" s="3"/>
-    </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B179" s="3"/>
-    </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B180" s="3"/>
-    </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B181" s="3"/>
-    </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B182" s="3"/>
-    </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B183" s="3"/>
-    </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B184" s="3"/>
-    </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B185" s="3"/>
-    </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B186" s="3"/>
-    </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B187" s="3"/>
-    </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B188" s="3"/>
-    </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B189" s="3"/>
-    </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B190" s="3"/>
-    </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B191" s="3"/>
-    </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B192" s="3"/>
-    </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B193" s="3"/>
-    </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B194" s="3"/>
-    </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B195" s="3"/>
-    </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B196" s="3"/>
-    </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B197" s="3"/>
-    </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B198" s="3"/>
-    </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B199" s="3"/>
-    </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B200" s="3"/>
-    </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B201" s="3"/>
-    </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B202" s="3"/>
-    </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B203" s="3"/>
-    </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B204" s="3"/>
-    </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B205" s="3"/>
-    </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B206" s="3"/>
-    </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B207" s="3"/>
-    </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B208" s="3"/>
-    </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B209" s="3"/>
-    </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B210" s="3"/>
-    </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B211" s="3"/>
-    </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B212" s="3"/>
-    </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B213" s="3"/>
-    </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B214" s="3"/>
-    </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B215" s="3"/>
-    </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B216" s="3"/>
-    </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B217" s="3"/>
-    </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B218" s="3"/>
-    </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B219" s="3"/>
-    </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B220" s="3"/>
-    </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B221" s="3"/>
-    </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B222" s="3"/>
-    </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B223" s="3"/>
-    </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B224" s="3"/>
-    </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B225" s="3"/>
-    </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B226" s="3"/>
-    </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B227" s="3"/>
-    </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B228" s="3"/>
-    </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B229" s="3"/>
-    </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B230" s="3"/>
-    </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B231" s="3"/>
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
